--- a/Chatbot/Queries/Program Details.xlsx
+++ b/Chatbot/Queries/Program Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Study\Current\Minor Project\minor_project\Chatbot_Final\Queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A3C4CA-017E-4254-B582-67F6B8B65F65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134EED5-4266-4709-AEEC-4D4C5E600CC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="190">
   <si>
     <t>Scope</t>
   </si>
@@ -886,63 +886,6 @@
     <t xml:space="preserve">Semiconductor Lab, Communication Lab, Microwave Lab, VLSI and Embedded System Design Lab, Control &amp; Automation Laboratory, Power System Laboratory, Power Electronics &amp; Drives Laboratory, Microprocessor, and Digital System Design Lab, Electronic Circuit Design Lab, Internet of Things (IoT) Lab, Project and Innovation Lab, Electrical Machinery Laboratory, Microcontroller &amp; Embedded System Laboratory, Integrated Electronics Laboratory, Circuits &amp; Measurements Laboratory.          </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MET 2020 Rank Holders -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Admissions are done on the basis of rank in the Manipal Entrance Test (MET) 2020.                                                                                                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Direct Admission - Foreign/NRI/NRI Sponsored/ PIO/OCI  Category  -                  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Admissions are done on the basis of marks obtained in the qualifying examination and recommendation of “Committee for Foreign / NRI admissions”.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">                                                 For direct admission other than Foreign/NRI/NRI Sponsored/ PIO/OCI  Category  (in branches where seats are likely to remain vacant) the following candidates will be eligible- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Admissions are done on the basis of marks obtained in the qualifying examination.</t>
-    </r>
-  </si>
-  <si>
     <t>MA -English</t>
   </si>
   <si>
@@ -961,150 +904,6 @@
     <t>The candidate must have passed in 10+2 from a recognized board or equivalent qualification as recognized by Association of Indian Universities (AIU) or other competent body with a minimum of 50% marks in any discipline.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MET 2020 Rank Holders -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Candidate must have passed 10+2 from recognized board or equivalent qualification as recognized by Association of Indian Universities (AIU) or other competent body with Physics, Mathematics and English as Compulsory subjects, along with any one of Chemistry or Computer Science or Biotechnology or Biology or Statistics or Engineering Drawing as optional subject for admission to B Tech, with minimum of 60% marks in Physics, Mathematics and the optional subject, put together.                                                                                                                                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Direct Admission - Foreign/NRI/NRI Sponsored/ PIO/OCI  Category</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Candidate must have passed 10+2 from recognized board or equivalent qualification as recognized by Association of Indian Universities (AIU) or other competent body with Physics, Mathematics and English as Compulsory subjects, along with any one of Chemistry or Computer Science or Biotechnology or Biology or Statistics or Engineering Drawing as optional subject for admission to B Tech, with minimum of 50% marks in Physics, Mathematics and the optional subject, put together.Direct admission – Indian Students
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>For direct admission (in branches where seats are likely to remain vacant) the following candidates will be eligible</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">:
-All remaining MET 2020 rank holders, i.e., those who did not/could not come for counselling. Eligibility is as mentioned under the head “MET 2020 Rank Holders”.
-OR
-All students who have a JEE rank and have qualified for JEE Advanced in that year. Eligibility is as mentioned under the head </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">“MET 2020 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Rank Holders”.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-OR
-All other Students with Physics, Mathematics and English as compulsory subjects and who have</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>60%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>r equivalent (in PMX subjects) in their 10+2 from recognized board or equivalent qualification as recognized by Association of Indian Universities (AIU) or other competent body, (where X could be Chemistry/Computer Science/Biotechnology/Biology/Statistics/ Engineering Drawing).</t>
-    </r>
-  </si>
-  <si>
     <t>Empty</t>
   </si>
   <si>
@@ -1168,7 +967,136 @@
     <t>Bachelors of Architecture, Architecture,B Arch,bachelors in arch, bachelor of arch</t>
   </si>
   <si>
-    <t>MET 2020 Rank Holders - Candidate must have passed 10+2 from recognized board or equivalent qualification as recognized by Association of Indian Universities (AIU) or other competent body with Physics, Mathematics and English as Compulsory subjects, along with any one of Chemistry or Computer Science or Biotechnology or Biology or Statistics or Engineering Drawing as optional subject for admission to B Tech, with minimum of 60% marks in Physics, Mathematics and the optional subject, put together.                                                                                                                                                 Direct Admission - Foreign/NRI/NRI Sponsored/ PIO/OCI  Category  - Candidate must have passed 10+2 from recognized board or equivalent qualification as recognized by Association of Indian Universities (AIU) or other competent body with Physics, Mathematics and English as Compulsory subjects, along with any one of Chemistry or Computer Science or Biotechnology or Biology or Statistics or Engineering Drawing as optional subject for admission to B Tech, with minimum of 50% marks in Physics, Mathematics and the optional subject, put together.Direct admission – Indian Students
+    <t>Not Applicable without Branch</t>
+  </si>
+  <si>
+    <t>Not Appliable without Branch</t>
+  </si>
+  <si>
+    <t>Master of Architecture Landscape, M arch,masters in arch</t>
+  </si>
+  <si>
+    <t>Bachelor of Design Fashion Design, B des,fashion design,design</t>
+  </si>
+  <si>
+    <t>Bachelor of Fine Arts, BFA,applied arts</t>
+  </si>
+  <si>
+    <t>Bachelor of Design Inteior Design, BA interior design</t>
+  </si>
+  <si>
+    <t>Bachelors of Hotel Management, BHM,Hotel Management</t>
+  </si>
+  <si>
+    <t>Bachelor of Commerce Honors Accounting, B Com</t>
+  </si>
+  <si>
+    <t>Bachelor of Commerce, B Com, B Com Hons, Honors in Bcom</t>
+  </si>
+  <si>
+    <t>Masters of Commerce Financial Analysis, M com, M com FA, Financial Analysis</t>
+  </si>
+  <si>
+    <t>Masters of Business Administration Marketing, Human Resources, Finance, MBA</t>
+  </si>
+  <si>
+    <t>Bachelor of Science, BSC,b sc,b sc hons,b sc (hons), bsc physics, bsc phys</t>
+  </si>
+  <si>
+    <t>Bachelor of Science,BSC,b sc,b sc hons,b sc (hons), bsc maths, bsc mathematics, Bachelor of Science Mathematics</t>
+  </si>
+  <si>
+    <t>Bachelor of Science,BSC,b sc,b sc hons,b sc (hons), bsc bio tech, bsc biotech, biotech, Bachelor of Science, BSC</t>
+  </si>
+  <si>
+    <t>Bachelor of Science,BSC,b sc,b sc hons,b sc (hons), bsc microbiology, microbiology, bachelor of science mircobiology</t>
+  </si>
+  <si>
+    <t>Bachelor of Science,BSC,b sc,b sc hons,b sc (hons), bsc psychology, bachelor of Science psychology, psychology</t>
+  </si>
+  <si>
+    <t>Bachelor of Computer Applications,BCA,computer applications</t>
+  </si>
+  <si>
+    <t>Master of Science, MSC,m sc, masters in chem, Master of science chem, msc chem</t>
+  </si>
+  <si>
+    <t>Master of Science, MSC,m sc, masters in biotechnology, Master of science biotechnology, msc chem</t>
+  </si>
+  <si>
+    <t>Master of Science, MSC,m sc, masters in mathematics, master of science mathematics, msc math</t>
+  </si>
+  <si>
+    <t>Master of Science, MSC,m sc, masters in phys, master of science in phys, msc phys</t>
+  </si>
+  <si>
+    <t>Master of Science, MSC,m sc, masters in clinical psychology, master of science in clinical psychology, msc psychology</t>
+  </si>
+  <si>
+    <t>Master of Computer Application, MCA, Masters in Computer</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts, BA hons, Bachelor of Arts hons, BA, Bachelor of Arts Economics, BA Eco, Bachelor of Arts Eco</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts, BA hons, Bachelor of Arts hons, BA, Bachelor of Arts Economics, BA Eng, Bachelor of Arts Eng</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts, BA hons, Bachelor of Arts hons, BA, Bachelor of Arts Psychology, BA Psychology</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts, BA liberal, Bachelor of Arts liberal arts, BA</t>
+  </si>
+  <si>
+    <t>Bachelor of Physical Education and Sports, BPES, Bachelor of Phys Edu, Physical Education</t>
+  </si>
+  <si>
+    <t>Bachelor of Art Journalism and Mass Communication, Art and Journalism and Mass Communication, Arts and mass comm, B J MC, BJMC</t>
+  </si>
+  <si>
+    <t>Master of Art Journalism and Mass Communication, Masters in Journalism and Mass Communication, Masters in J MC, M J MC, MJMC</t>
+  </si>
+  <si>
+    <t>Master of Arts English, MA Eng, Masters in English</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts and Bachelor of Legislative Law Integrated Honors,  Integrated BBA LLB, LLB Hons, BBA Integrated</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts and Bachelor of Legislative Law Integrated Honors,  Integrated BA LLB, LLB Hons, BA Integrated</t>
+  </si>
+  <si>
+    <t>Bachelor of Legislative Law, LLB, Law, Bachelor in Law</t>
+  </si>
+  <si>
+    <t>Master of Legislative Law, LLM, Masters in Law Corporate and Commercial Law, Corporate and Commercial Law, Masters in Law</t>
+  </si>
+  <si>
+    <t>Master of Legislative Law, LLM, Masters in Law Criminal and Security Law, Criminal and Security Law, Masters in Law</t>
+  </si>
+  <si>
+    <t>B Tech (Non Lateral)</t>
+  </si>
+  <si>
+    <t>Bachelor of Technology and Engineering, Engg., Engineering, Btech, B Tech, Bachelor of Tech</t>
+  </si>
+  <si>
+    <t>Bachelors of Business Administration,BBA,Business Admin</t>
+  </si>
+  <si>
+    <t>Bachelor of Science,BSC,b sc,b sc hons,b sc (hons), bsc chem, Bachelor of Science Chem</t>
+  </si>
+  <si>
+    <t>Bachelor of Technology and Engineering, Bachelor of Technology, Information Technology,B Tech,btech,b.tech,Information Technology,I.T.,engineering</t>
+  </si>
+  <si>
+    <t>Bachelor of Technology and Engineering, Bachelor of Technology, Computer Science Engineering,B Tech,btech,b.tech,computer science,computer sci.,cse,c.s.,engineering</t>
+  </si>
+  <si>
+    <t>Candidate must have a rank from Manipal Entrance Test (MET) happened in the respective year.
+Candidate must have passed 10+2 from recognized board with Physics, Mathematics and English as Compulsory subjects with minimum of 60% marks in Physics, Mathematics and the optional subject, put together.
+For Direct Admission, 
+Foreign/NRI/NRI Sponsored/ PIO/OCI  Category  - Candidate must have passed 10+2 from recognized board with Physics, Mathematics and English as Compulsory subjects with minimum of 50% marks in Physics, Mathematics and the optional subject, put together.Direct admission – Indian Students
 For direct admission (in branches where seats are likely to remain vacant) the following candidates will be eligible:
 All remaining MET 2020 rank holders, i.e., those who did not/could not come for counselling. Eligibility is as mentioned under the head “MET 2020 Rank Holders”.
 OR
@@ -1177,140 +1105,16 @@
 All other Students with Physics, Mathematics and English as compulsory subjects and who have 60% or equivalent (in PMX subjects) in their 10+2 from recognized board or equivalent qualification as recognized by Association of Indian Universities (AIU) or other competent body, (where X could be Chemistry/Computer Science/Biotechnology/Biology/Statistics/ Engineering Drawing).</t>
   </si>
   <si>
-    <t>MET 2020 Rank Holders -Admissions are done on the basis of rank in the Manipal Entrance Test (MET) 2020.                                                                                                         Direct Admission - Foreign/NRI/NRI Sponsored/ PIO/OCI  Category  -                  Admissions are done on the basis of marks obtained in the qualifying examination and recommendation of “Committee for Foreign / NRI admissions”.                                                 For direct admission other than Foreign/NRI/NRI Sponsored/ PIO/OCI  Category  (in branches where seats are likely to remain vacant) the following candidates will be eligible- Admissions are done on the basis of marks obtained in the qualifying examination.</t>
-  </si>
-  <si>
-    <t>Not Applicable without Branch</t>
-  </si>
-  <si>
-    <t>Not Appliable without Branch</t>
-  </si>
-  <si>
-    <t>Master of Architecture Landscape, M arch,masters in arch</t>
-  </si>
-  <si>
-    <t>Bachelor of Design Fashion Design, B des,fashion design,design</t>
-  </si>
-  <si>
-    <t>Bachelor of Fine Arts, BFA,applied arts</t>
-  </si>
-  <si>
-    <t>Bachelor of Design Inteior Design, BA interior design</t>
-  </si>
-  <si>
-    <t>Bachelors of Hotel Management, BHM,Hotel Management</t>
-  </si>
-  <si>
-    <t>Bachelor of Commerce Honors Accounting, B Com</t>
-  </si>
-  <si>
-    <t>Bachelor of Commerce, B Com, B Com Hons, Honors in Bcom</t>
-  </si>
-  <si>
-    <t>Masters of Commerce Financial Analysis, M com, M com FA, Financial Analysis</t>
-  </si>
-  <si>
-    <t>Masters of Business Administration Marketing, Human Resources, Finance, MBA</t>
-  </si>
-  <si>
-    <t>Bachelor of Science, BSC,b sc,b sc hons,b sc (hons), bsc physics, bsc phys</t>
-  </si>
-  <si>
-    <t>Bachelor of Science,BSC,b sc,b sc hons,b sc (hons), bsc maths, bsc mathematics, Bachelor of Science Mathematics</t>
-  </si>
-  <si>
-    <t>Bachelor of Science,BSC,b sc,b sc hons,b sc (hons), bsc bio tech, bsc biotech, biotech, Bachelor of Science, BSC</t>
-  </si>
-  <si>
-    <t>Bachelor of Science,BSC,b sc,b sc hons,b sc (hons), bsc microbiology, microbiology, bachelor of science mircobiology</t>
-  </si>
-  <si>
-    <t>Bachelor of Science,BSC,b sc,b sc hons,b sc (hons), bsc psychology, bachelor of Science psychology, psychology</t>
-  </si>
-  <si>
-    <t>Bachelor of Computer Applications,BCA,computer applications</t>
-  </si>
-  <si>
-    <t>Master of Science, MSC,m sc, masters in chem, Master of science chem, msc chem</t>
-  </si>
-  <si>
-    <t>Master of Science, MSC,m sc, masters in biotechnology, Master of science biotechnology, msc chem</t>
-  </si>
-  <si>
-    <t>Master of Science, MSC,m sc, masters in mathematics, master of science mathematics, msc math</t>
-  </si>
-  <si>
-    <t>Master of Science, MSC,m sc, masters in phys, master of science in phys, msc phys</t>
-  </si>
-  <si>
-    <t>Master of Science, MSC,m sc, masters in clinical psychology, master of science in clinical psychology, msc psychology</t>
-  </si>
-  <si>
-    <t>Master of Computer Application, MCA, Masters in Computer</t>
-  </si>
-  <si>
-    <t>Bachelor of Arts, BA hons, Bachelor of Arts hons, BA, Bachelor of Arts Economics, BA Eco, Bachelor of Arts Eco</t>
-  </si>
-  <si>
-    <t>Bachelor of Arts, BA hons, Bachelor of Arts hons, BA, Bachelor of Arts Economics, BA Eng, Bachelor of Arts Eng</t>
-  </si>
-  <si>
-    <t>Bachelor of Arts, BA hons, Bachelor of Arts hons, BA, Bachelor of Arts Psychology, BA Psychology</t>
-  </si>
-  <si>
-    <t>Bachelor of Arts, BA liberal, Bachelor of Arts liberal arts, BA</t>
-  </si>
-  <si>
-    <t>Bachelor of Physical Education and Sports, BPES, Bachelor of Phys Edu, Physical Education</t>
-  </si>
-  <si>
-    <t>Bachelor of Art Journalism and Mass Communication, Art and Journalism and Mass Communication, Arts and mass comm, B J MC, BJMC</t>
-  </si>
-  <si>
-    <t>Master of Art Journalism and Mass Communication, Masters in Journalism and Mass Communication, Masters in J MC, M J MC, MJMC</t>
-  </si>
-  <si>
-    <t>Master of Arts English, MA Eng, Masters in English</t>
-  </si>
-  <si>
-    <t>Bachelor of Arts and Bachelor of Legislative Law Integrated Honors,  Integrated BBA LLB, LLB Hons, BBA Integrated</t>
-  </si>
-  <si>
-    <t>Bachelor of Arts and Bachelor of Legislative Law Integrated Honors,  Integrated BA LLB, LLB Hons, BA Integrated</t>
-  </si>
-  <si>
-    <t>Bachelor of Legislative Law, LLB, Law, Bachelor in Law</t>
-  </si>
-  <si>
-    <t>Master of Legislative Law, LLM, Masters in Law Corporate and Commercial Law, Corporate and Commercial Law, Masters in Law</t>
-  </si>
-  <si>
-    <t>Master of Legislative Law, LLM, Masters in Law Criminal and Security Law, Criminal and Security Law, Masters in Law</t>
-  </si>
-  <si>
-    <t>B Tech (Non Lateral)</t>
-  </si>
-  <si>
-    <t>Bachelor of Technology and Engineering, Engg., Engineering, Btech, B Tech, Bachelor of Tech</t>
-  </si>
-  <si>
-    <t>Bachelors of Business Administration,BBA,Business Admin</t>
-  </si>
-  <si>
-    <t>Bachelor of Science,BSC,b sc,b sc hons,b sc (hons), bsc chem, Bachelor of Science Chem</t>
-  </si>
-  <si>
-    <t>Bachelor of Technology and Engineering, Bachelor of Technology, Information Technology,B Tech,btech,b.tech,Information Technology,I.T.,engineering</t>
-  </si>
-  <si>
-    <t>Bachelor of Technology and Engineering, Bachelor of Technology, Computer Science Engineering,B Tech,btech,b.tech,computer science,computer sci.,cse,c.s.,engineering</t>
+    <t>Admissions are done on the basis of rank in the Manipal Entrance Test (MET) for the respective year.
+Direct Admission - Foreign/NRI/NRI Sponsored/ PIO/OCI  Category  -                  Admissions are done on the basis of marks obtained in the qualifying examination and recommendation of “Committee for Foreign / NRI admissions”.
+For direct admission other than Foreign/NRI/NRI Sponsored/ PIO/OCI  Category  (in branches where seats are likely to remain vacant) the following candidates will be eligible- Admissions are done on the basis of marks obtained in the qualifying examination.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1375,25 +1179,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF7030A0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FF800000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1401,12 +1186,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1425,12 +1204,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1535,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1567,13 +1340,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1597,10 +1370,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1615,19 +1388,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1636,10 +1409,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1669,10 +1442,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1686,6 +1459,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1969,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1987,7 +1763,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" ht="26.4">
       <c r="A1" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>3</v>
@@ -2005,53 +1781,49 @@
         <v>1</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="44" customFormat="1" ht="277.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="44" customFormat="1" ht="250.8">
       <c r="A2" s="45" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>149</v>
+        <v>188</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>189</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="277.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="72">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>119</v>
-      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>116</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="65.25" customHeight="1">
@@ -2068,7 +1840,7 @@
         <v>117</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="84.75" customHeight="1">
@@ -2087,7 +1859,7 @@
         <v>118</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="84" customHeight="1">
@@ -2102,7 +1874,7 @@
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="86.4">
@@ -2118,10 +1890,10 @@
         <v>114</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="72">
@@ -2136,7 +1908,7 @@
       <c r="E8" s="35"/>
       <c r="F8" s="42"/>
       <c r="G8" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="86.4">
@@ -2151,7 +1923,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="42"/>
       <c r="G9" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="72">
@@ -2164,11 +1936,11 @@
       <c r="C10" s="38"/>
       <c r="D10" s="37"/>
       <c r="E10" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="72">
@@ -2183,7 +1955,7 @@
       <c r="E11" s="35"/>
       <c r="F11" s="42"/>
       <c r="G11" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="72">
@@ -2198,7 +1970,7 @@
       <c r="E12" s="35"/>
       <c r="F12" s="42"/>
       <c r="G12" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" ht="72" customHeight="1">
@@ -2217,12 +1989,12 @@
       <c r="E13" s="35"/>
       <c r="F13" s="42"/>
       <c r="G13" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>16</v>
@@ -2236,7 +2008,7 @@
       <c r="E14" s="35"/>
       <c r="F14" s="42"/>
       <c r="G14" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.2">
@@ -2253,7 +2025,7 @@
       <c r="E15" s="28"/>
       <c r="F15" s="42"/>
       <c r="G15" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="57" customHeight="1">
@@ -2272,7 +2044,7 @@
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="57" customHeight="1">
@@ -2289,12 +2061,12 @@
       <c r="E17" s="35"/>
       <c r="F17" s="42"/>
       <c r="G17" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="60.75" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>16</v>
@@ -2306,7 +2078,7 @@
       <c r="E18" s="28"/>
       <c r="F18" s="42"/>
       <c r="G18" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48.75" customHeight="1">
@@ -2325,7 +2097,7 @@
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="42" customHeight="1">
@@ -2338,7 +2110,7 @@
       <c r="E20" s="28"/>
       <c r="F20" s="42"/>
       <c r="G20" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="55.2">
@@ -2353,11 +2125,11 @@
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="94.5" customHeight="1">
@@ -2376,7 +2148,7 @@
       <c r="E22" s="30"/>
       <c r="F22" s="42"/>
       <c r="G22" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="79.2">
@@ -2395,7 +2167,7 @@
       <c r="E23" s="31"/>
       <c r="F23" s="42"/>
       <c r="G23" s="47" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="66">
@@ -2416,7 +2188,7 @@
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="48" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="79.2">
@@ -2433,7 +2205,7 @@
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="48" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="52.8">
@@ -2450,7 +2222,7 @@
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="48" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="121.5" customHeight="1">
@@ -2471,7 +2243,7 @@
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="48" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="66.75" customHeight="1">
@@ -2490,7 +2262,7 @@
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="49" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="35.25" customHeight="1">
@@ -2507,7 +2279,7 @@
       <c r="E29" s="35"/>
       <c r="F29" s="42"/>
       <c r="G29" s="48" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="31.5" customHeight="1">
@@ -2524,7 +2296,7 @@
       <c r="E30" s="35"/>
       <c r="F30" s="42"/>
       <c r="G30" s="48" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="66" customHeight="1">
@@ -2543,7 +2315,7 @@
       <c r="E31" s="28"/>
       <c r="F31" s="42"/>
       <c r="G31" s="48" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="69" customHeight="1">
@@ -2560,11 +2332,11 @@
         <v>49</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="48" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="39.6">
@@ -2583,7 +2355,7 @@
       <c r="E33" s="30"/>
       <c r="F33" s="42"/>
       <c r="G33" s="48" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="43.2">
@@ -2598,7 +2370,7 @@
       <c r="E34" s="30"/>
       <c r="F34" s="42"/>
       <c r="G34" s="50" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="57.6">
@@ -2613,7 +2385,7 @@
       <c r="E35" s="30"/>
       <c r="F35" s="42"/>
       <c r="G35" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="57.6">
@@ -2628,7 +2400,7 @@
       <c r="E36" s="30"/>
       <c r="F36" s="42"/>
       <c r="G36" s="48" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="57.6">
@@ -2643,7 +2415,7 @@
       <c r="E37" s="30"/>
       <c r="F37" s="42"/>
       <c r="G37" s="48" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="57.6">
@@ -2658,7 +2430,7 @@
       <c r="E38" s="30"/>
       <c r="F38" s="42"/>
       <c r="G38" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="43.2">
@@ -2677,7 +2449,7 @@
       <c r="E39" s="30"/>
       <c r="F39" s="42"/>
       <c r="G39" s="48" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="43.2">
@@ -2696,7 +2468,7 @@
       <c r="E40" s="30"/>
       <c r="F40" s="42"/>
       <c r="G40" s="48" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="43.2">
@@ -2711,7 +2483,7 @@
       <c r="E41" s="30"/>
       <c r="F41" s="42"/>
       <c r="G41" s="48" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="43.2">
@@ -2726,7 +2498,7 @@
       <c r="E42" s="30"/>
       <c r="F42" s="42"/>
       <c r="G42" s="48" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="24" customHeight="1">
@@ -2741,7 +2513,7 @@
       <c r="E43" s="30"/>
       <c r="F43" s="42"/>
       <c r="G43" s="48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="64.5" customHeight="1">
@@ -2760,7 +2532,7 @@
       <c r="E44" s="30"/>
       <c r="F44" s="42"/>
       <c r="G44" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66.75" customHeight="1">
@@ -2779,7 +2551,7 @@
       <c r="E45" s="31"/>
       <c r="F45" s="42"/>
       <c r="G45" s="48" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="27.75" customHeight="1">
@@ -2800,7 +2572,7 @@
       </c>
       <c r="F46" s="42"/>
       <c r="G46" s="48" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28.5" customHeight="1">
@@ -2817,7 +2589,7 @@
       <c r="E47" s="34"/>
       <c r="F47" s="42"/>
       <c r="G47" s="48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="27.75" customHeight="1">
@@ -2834,24 +2606,24 @@
       <c r="E48" s="34"/>
       <c r="F48" s="42"/>
       <c r="G48" s="48" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="27.75" customHeight="1">
       <c r="A49" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="34"/>
       <c r="F49" s="42"/>
       <c r="G49" s="48" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="54.75" customHeight="1">
@@ -2868,7 +2640,7 @@
       <c r="E50" s="34"/>
       <c r="F50" s="42"/>
       <c r="G50" s="48" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="38.25" customHeight="1">
@@ -2889,7 +2661,7 @@
       </c>
       <c r="F51" s="42"/>
       <c r="G51" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="44.25" customHeight="1">
@@ -2908,26 +2680,26 @@
       <c r="E52" s="34"/>
       <c r="F52" s="42"/>
       <c r="G52" s="48" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="46.5" customHeight="1">
       <c r="A53" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="45.75" customHeight="1">
@@ -2948,7 +2720,7 @@
       </c>
       <c r="F54" s="42"/>
       <c r="G54" s="48" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="57.6">
@@ -2963,7 +2735,7 @@
       <c r="E55" s="35"/>
       <c r="F55" s="42"/>
       <c r="G55" s="48" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.8">
@@ -2980,7 +2752,7 @@
       <c r="E56" s="35"/>
       <c r="F56" s="42"/>
       <c r="G56" s="48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="33.75" customHeight="1">
@@ -2999,7 +2771,7 @@
       <c r="E57" s="35"/>
       <c r="F57" s="42"/>
       <c r="G57" s="48" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="38.25" customHeight="1">
@@ -3014,11 +2786,11 @@
       <c r="E58" s="28"/>
       <c r="F58" s="43"/>
       <c r="G58" s="48" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
 </worksheet>
